--- a/spreadsheets/CW1.xlsx
+++ b/spreadsheets/CW1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VirLaDEE\output\O2\Lecture_DigitalTwin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4F628-69FE-416C-B60B-B4FCED2A68D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B39B77-F61B-4E71-9C24-789FC5E50BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="11640" windowHeight="5010" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Assets!$A$2:$BA$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,9 +130,6 @@
     <t/>
   </si>
   <si>
-    <t>http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
@@ -183,6 +179,9 @@
   </si>
   <si>
     <t>http://www.ontoeng.com/factory#MachineTool</t>
+  </si>
+  <si>
+    <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding</t>
   </si>
 </sst>
 </file>
@@ -594,6 +593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -605,9 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,19 +928,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="12" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU202,Context!H1,Assets!AV202,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","Pallet","M1","M2","M3","M4"], "assets": [{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","Pallet","M1","M2","M3","M4"], "assets": [{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -965,8 +964,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -974,7 +973,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
@@ -982,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1002,54 +1001,54 @@
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40.578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="32.68359375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.83984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="6.41796875" style="30" customWidth="1"/>
-    <col min="9" max="9" width="7.578125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="8.26171875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="6.41796875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.15625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.68359375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="15.15625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.83984375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="2.578125" style="30" customWidth="1"/>
-    <col min="18" max="21" width="2.26171875" style="6" customWidth="1"/>
-    <col min="22" max="24" width="2.26171875" customWidth="1"/>
-    <col min="25" max="25" width="5.578125" customWidth="1"/>
-    <col min="26" max="26" width="6.578125" customWidth="1"/>
-    <col min="27" max="27" width="3.26171875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="2.578125" customWidth="1"/>
-    <col min="29" max="31" width="1.68359375" customWidth="1"/>
-    <col min="32" max="32" width="2.41796875" customWidth="1"/>
-    <col min="33" max="45" width="1.68359375" customWidth="1"/>
-    <col min="46" max="47" width="3.15625" customWidth="1"/>
-    <col min="48" max="48" width="8.578125" customWidth="1"/>
-    <col min="49" max="49" width="7.15625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" style="30" customWidth="1"/>
+    <col min="18" max="21" width="2.28515625" style="6" customWidth="1"/>
+    <col min="22" max="24" width="2.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" customWidth="1"/>
+    <col min="29" max="31" width="1.7109375" customWidth="1"/>
+    <col min="32" max="32" width="2.42578125" customWidth="1"/>
+    <col min="33" max="45" width="1.7109375" customWidth="1"/>
+    <col min="46" max="47" width="3.140625" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" customWidth="1"/>
+    <col min="49" max="49" width="7.140625" customWidth="1"/>
     <col min="50" max="52" width="3" customWidth="1"/>
-    <col min="53" max="53" width="2.68359375" customWidth="1"/>
+    <col min="53" max="53" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:50" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="str">
         <f>Context!B1</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","Pallet","M1","M2","M3","M4"], "assets": [{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": ""},"scene": ["building","Pallet","M1","M2","M3","M4"], "assets": [{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}]}</v>
       </c>
       <c r="AF1" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1071,16 +1070,16 @@
       <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="41" t="s">
         <v>13</v>
       </c>
@@ -1102,14 +1101,14 @@
       <c r="T2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="52" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="54"/>
+      <c r="X2" s="55"/>
       <c r="Y2" s="42" t="s">
         <v>20</v>
       </c>
@@ -1180,18 +1179,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="25">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1232,7 +1231,7 @@
       </c>
       <c r="AD3" s="2" t="str">
         <f>IF(D3&lt;&gt;"",CONCATENATE(", """,D$2,""": """,D3,""""),"")</f>
-        <v>, "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding"</v>
+        <v>, "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding"</v>
       </c>
       <c r="AE3" s="2" t="str">
         <f>IF(E3&lt;&gt;"",CONCATENATE(", """,E$2,""": """,E3,""""),"")</f>
@@ -1295,7 +1294,7 @@
       </c>
       <c r="AT3" s="2" t="str">
         <f>CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]}</v>
       </c>
       <c r="AU3" s="9" t="str">
         <f>IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1303,7 +1302,7 @@
       </c>
       <c r="AV3" s="4" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]}</v>
       </c>
       <c r="AW3" s="5" t="s">
         <v>1</v>
@@ -1312,22 +1311,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="25">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="49">
         <v>1</v>
@@ -1338,14 +1337,14 @@
       <c r="I4" s="25">
         <v>0</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="52">
         <v>300</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N9" si="1">$A$3</f>
+        <f t="shared" ref="N4:N8" si="1">$A$3</f>
         <v>building</v>
       </c>
       <c r="O4" s="1"/>
@@ -1442,7 +1441,7 @@
       </c>
       <c r="AV4" s="4" t="str">
         <f t="shared" ref="AV4:AV67" si="13">IF(A4&lt;&gt;"",CONCATENATE(IF(AV3&lt;&gt;"",CONCATENATE(AV3,","),""),AT4),AV3)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"}</v>
       </c>
       <c r="AW4" s="5" t="s">
         <v>1</v>
@@ -1451,22 +1450,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="49">
         <v>1</v>
@@ -1581,7 +1580,7 @@
       </c>
       <c r="AV5" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"}</v>
       </c>
       <c r="AW5" s="5" t="s">
         <v>1</v>
@@ -1590,22 +1589,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="51">
         <v>1</v>
@@ -1720,7 +1719,7 @@
       </c>
       <c r="AV6" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"}</v>
       </c>
       <c r="AW6" s="5" t="s">
         <v>1</v>
@@ -1729,22 +1728,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="25">
         <v>1</v>
@@ -1859,7 +1858,7 @@
       </c>
       <c r="AV7" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"}</v>
       </c>
       <c r="AW7" s="5" t="s">
         <v>1</v>
@@ -1868,22 +1867,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="25">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="49">
         <v>1</v>
@@ -1998,7 +1997,7 @@
       </c>
       <c r="AV8" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW8" s="5" t="s">
         <v>1</v>
@@ -2007,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:50" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="39"/>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="AV9" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>1</v>
@@ -2125,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="39"/>
@@ -2234,7 +2233,7 @@
       </c>
       <c r="AV10" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>1</v>
@@ -2243,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="39"/>
@@ -2352,13 +2351,13 @@
       </c>
       <c r="AV11" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="39"/>
@@ -2467,13 +2466,13 @@
       </c>
       <c r="AV12" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="39"/>
@@ -2582,13 +2581,13 @@
       </c>
       <c r="AV13" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW13" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="39"/>
@@ -2697,13 +2696,13 @@
       </c>
       <c r="AV14" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="39"/>
@@ -2812,13 +2811,13 @@
       </c>
       <c r="AV15" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:50" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="39"/>
@@ -2927,13 +2926,13 @@
       </c>
       <c r="AV16" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW16" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -3042,13 +3041,13 @@
       </c>
       <c r="AV17" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW17" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="39"/>
@@ -3157,13 +3156,13 @@
       </c>
       <c r="AV18" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW18" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="39"/>
@@ -3272,13 +3271,13 @@
       </c>
       <c r="AV19" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW19" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="39"/>
@@ -3387,13 +3386,13 @@
       </c>
       <c r="AV20" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW20" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="39"/>
@@ -3502,13 +3501,13 @@
       </c>
       <c r="AV21" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW21" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="39"/>
@@ -3617,13 +3616,13 @@
       </c>
       <c r="AV22" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW22" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="39"/>
@@ -3732,13 +3731,13 @@
       </c>
       <c r="AV23" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW23" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="39"/>
@@ -3847,13 +3846,13 @@
       </c>
       <c r="AV24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW24" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="39"/>
@@ -3962,13 +3961,13 @@
       </c>
       <c r="AV25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="39"/>
@@ -4077,13 +4076,13 @@
       </c>
       <c r="AV26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="39"/>
@@ -4192,13 +4191,13 @@
       </c>
       <c r="AV27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW27" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
@@ -4307,13 +4306,13 @@
       </c>
       <c r="AV28" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
@@ -4422,13 +4421,13 @@
       </c>
       <c r="AV29" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW29" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="39"/>
@@ -4537,13 +4536,13 @@
       </c>
       <c r="AV30" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW30" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="39"/>
@@ -4652,13 +4651,13 @@
       </c>
       <c r="AV31" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW31" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
@@ -4767,13 +4766,13 @@
       </c>
       <c r="AV32" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW32" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="36"/>
@@ -4882,13 +4881,13 @@
       </c>
       <c r="AV33" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW33" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
@@ -4997,13 +4996,13 @@
       </c>
       <c r="AV34" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW34" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
@@ -5112,13 +5111,13 @@
       </c>
       <c r="AV35" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW35" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="36"/>
@@ -5227,13 +5226,13 @@
       </c>
       <c r="AV36" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="36"/>
@@ -5342,13 +5341,13 @@
       </c>
       <c r="AV37" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW37" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
@@ -5457,13 +5456,13 @@
       </c>
       <c r="AV38" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW38" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
@@ -5572,13 +5571,13 @@
       </c>
       <c r="AV39" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW39" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
@@ -5687,13 +5686,13 @@
       </c>
       <c r="AV40" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW40" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
@@ -5802,13 +5801,13 @@
       </c>
       <c r="AV41" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW41" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
@@ -5917,13 +5916,13 @@
       </c>
       <c r="AV42" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW42" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
@@ -6032,13 +6031,13 @@
       </c>
       <c r="AV43" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW43" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
@@ -6147,13 +6146,13 @@
       </c>
       <c r="AV44" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW44" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
@@ -6262,13 +6261,13 @@
       </c>
       <c r="AV45" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
@@ -6377,13 +6376,13 @@
       </c>
       <c r="AV46" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW46" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="36"/>
@@ -6492,13 +6491,13 @@
       </c>
       <c r="AV47" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="36"/>
@@ -6607,13 +6606,13 @@
       </c>
       <c r="AV48" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW48" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="36"/>
@@ -6722,13 +6721,13 @@
       </c>
       <c r="AV49" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW49" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
@@ -6837,13 +6836,13 @@
       </c>
       <c r="AV50" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW50" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="36"/>
@@ -6952,13 +6951,13 @@
       </c>
       <c r="AV51" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW51" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36"/>
@@ -7067,13 +7066,13 @@
       </c>
       <c r="AV52" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW52" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="36"/>
@@ -7182,13 +7181,13 @@
       </c>
       <c r="AV53" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW53" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="36"/>
@@ -7297,13 +7296,13 @@
       </c>
       <c r="AV54" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW54" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="36"/>
@@ -7412,13 +7411,13 @@
       </c>
       <c r="AV55" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW55" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="36"/>
@@ -7527,13 +7526,13 @@
       </c>
       <c r="AV56" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW56" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="36"/>
@@ -7642,13 +7641,13 @@
       </c>
       <c r="AV57" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW57" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="37"/>
       <c r="C58" s="36"/>
@@ -7757,13 +7756,13 @@
       </c>
       <c r="AV58" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="36"/>
@@ -7872,13 +7871,13 @@
       </c>
       <c r="AV59" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW59" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="36"/>
@@ -7987,13 +7986,13 @@
       </c>
       <c r="AV60" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW60" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="37"/>
       <c r="C61" s="36"/>
@@ -8102,13 +8101,13 @@
       </c>
       <c r="AV61" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW61" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="37"/>
       <c r="C62" s="36"/>
@@ -8217,13 +8216,13 @@
       </c>
       <c r="AV62" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW62" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="37"/>
       <c r="C63" s="36"/>
@@ -8332,13 +8331,13 @@
       </c>
       <c r="AV63" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW63" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="36"/>
@@ -8447,13 +8446,13 @@
       </c>
       <c r="AV64" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW64" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="36"/>
@@ -8562,13 +8561,13 @@
       </c>
       <c r="AV65" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW65" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="36"/>
@@ -8677,13 +8676,13 @@
       </c>
       <c r="AV66" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW66" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="36"/>
@@ -8792,13 +8791,13 @@
       </c>
       <c r="AV67" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW67" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="36"/>
@@ -8907,13 +8906,13 @@
       </c>
       <c r="AV68" s="4" t="str">
         <f t="shared" ref="AV68:AV131" si="26">IF(A68&lt;&gt;"",CONCATENATE(IF(AV67&lt;&gt;"",CONCATENATE(AV67,","),""),AT68),AV67)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW68" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="37"/>
       <c r="C69" s="36"/>
@@ -9022,13 +9021,13 @@
       </c>
       <c r="AV69" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="37"/>
       <c r="C70" s="36"/>
@@ -9137,13 +9136,13 @@
       </c>
       <c r="AV70" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW70" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="36"/>
@@ -9252,13 +9251,13 @@
       </c>
       <c r="AV71" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="36"/>
@@ -9367,13 +9366,13 @@
       </c>
       <c r="AV72" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW72" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="36"/>
@@ -9482,13 +9481,13 @@
       </c>
       <c r="AV73" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW73" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="36"/>
@@ -9597,13 +9596,13 @@
       </c>
       <c r="AV74" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW74" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="36"/>
@@ -9712,13 +9711,13 @@
       </c>
       <c r="AV75" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW75" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="37"/>
       <c r="C76" s="36"/>
@@ -9827,13 +9826,13 @@
       </c>
       <c r="AV76" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW76" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="37"/>
       <c r="C77" s="36"/>
@@ -9942,13 +9941,13 @@
       </c>
       <c r="AV77" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW77" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="36"/>
@@ -10057,13 +10056,13 @@
       </c>
       <c r="AV78" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW78" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="36"/>
@@ -10172,13 +10171,13 @@
       </c>
       <c r="AV79" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW79" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="36"/>
@@ -10287,13 +10286,13 @@
       </c>
       <c r="AV80" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW80" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="36"/>
@@ -10402,13 +10401,13 @@
       </c>
       <c r="AV81" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="36"/>
@@ -10517,13 +10516,13 @@
       </c>
       <c r="AV82" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW82" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -10632,13 +10631,13 @@
       </c>
       <c r="AV83" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW83" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="37"/>
       <c r="C84" s="36"/>
@@ -10747,13 +10746,13 @@
       </c>
       <c r="AV84" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW84" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="36"/>
@@ -10862,13 +10861,13 @@
       </c>
       <c r="AV85" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW85" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="36"/>
@@ -10977,13 +10976,13 @@
       </c>
       <c r="AV86" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW86" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="37"/>
       <c r="C87" s="36"/>
@@ -11092,13 +11091,13 @@
       </c>
       <c r="AV87" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW87" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="37"/>
       <c r="C88" s="36"/>
@@ -11207,13 +11206,13 @@
       </c>
       <c r="AV88" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW88" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="37"/>
       <c r="C89" s="36"/>
@@ -11322,13 +11321,13 @@
       </c>
       <c r="AV89" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW89" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="37"/>
       <c r="C90" s="36"/>
@@ -11437,13 +11436,13 @@
       </c>
       <c r="AV90" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW90" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="37"/>
       <c r="C91" s="36"/>
@@ -11552,13 +11551,13 @@
       </c>
       <c r="AV91" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW91" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="36"/>
@@ -11667,13 +11666,13 @@
       </c>
       <c r="AV92" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="37"/>
       <c r="C93" s="36"/>
@@ -11782,13 +11781,13 @@
       </c>
       <c r="AV93" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW93" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="37"/>
       <c r="C94" s="36"/>
@@ -11897,13 +11896,13 @@
       </c>
       <c r="AV94" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW94" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="37"/>
       <c r="C95" s="36"/>
@@ -12012,13 +12011,13 @@
       </c>
       <c r="AV95" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW95" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="36"/>
@@ -12127,13 +12126,13 @@
       </c>
       <c r="AV96" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW96" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37"/>
       <c r="C97" s="36"/>
@@ -12242,13 +12241,13 @@
       </c>
       <c r="AV97" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW97" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="37"/>
       <c r="C98" s="36"/>
@@ -12357,13 +12356,13 @@
       </c>
       <c r="AV98" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW98" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="37"/>
       <c r="C99" s="36"/>
@@ -12472,13 +12471,13 @@
       </c>
       <c r="AV99" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW99" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="25"/>
       <c r="C100" s="1"/>
@@ -12587,13 +12586,13 @@
       </c>
       <c r="AV100" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW100" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="25"/>
       <c r="C101" s="1"/>
@@ -12702,13 +12701,13 @@
       </c>
       <c r="AV101" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW101" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="25"/>
       <c r="C102" s="1"/>
@@ -12817,13 +12816,13 @@
       </c>
       <c r="AV102" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW102" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="25"/>
       <c r="C103" s="1"/>
@@ -12932,13 +12931,13 @@
       </c>
       <c r="AV103" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="25"/>
       <c r="C104" s="1"/>
@@ -13047,13 +13046,13 @@
       </c>
       <c r="AV104" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW104" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="25"/>
       <c r="C105" s="1"/>
@@ -13162,13 +13161,13 @@
       </c>
       <c r="AV105" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW105" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="25"/>
       <c r="C106" s="1"/>
@@ -13277,13 +13276,13 @@
       </c>
       <c r="AV106" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW106" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="25"/>
       <c r="C107" s="1"/>
@@ -13392,13 +13391,13 @@
       </c>
       <c r="AV107" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW107" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="25"/>
       <c r="C108" s="1"/>
@@ -13507,13 +13506,13 @@
       </c>
       <c r="AV108" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW108" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="25"/>
       <c r="C109" s="1"/>
@@ -13622,13 +13621,13 @@
       </c>
       <c r="AV109" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW109" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="25"/>
       <c r="C110" s="1"/>
@@ -13737,13 +13736,13 @@
       </c>
       <c r="AV110" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW110" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="25"/>
       <c r="C111" s="1"/>
@@ -13852,13 +13851,13 @@
       </c>
       <c r="AV111" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW111" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="25"/>
       <c r="C112" s="1"/>
@@ -13967,13 +13966,13 @@
       </c>
       <c r="AV112" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW112" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="25"/>
       <c r="C113" s="1"/>
@@ -14082,13 +14081,13 @@
       </c>
       <c r="AV113" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW113" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="25"/>
       <c r="C114" s="1"/>
@@ -14197,13 +14196,13 @@
       </c>
       <c r="AV114" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="25"/>
       <c r="C115" s="1"/>
@@ -14312,13 +14311,13 @@
       </c>
       <c r="AV115" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW115" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="25"/>
       <c r="C116" s="1"/>
@@ -14427,13 +14426,13 @@
       </c>
       <c r="AV116" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW116" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="25"/>
       <c r="C117" s="1"/>
@@ -14542,13 +14541,13 @@
       </c>
       <c r="AV117" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW117" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="25"/>
       <c r="C118" s="1"/>
@@ -14657,13 +14656,13 @@
       </c>
       <c r="AV118" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW118" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="25"/>
       <c r="C119" s="1"/>
@@ -14772,13 +14771,13 @@
       </c>
       <c r="AV119" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW119" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1"/>
@@ -14887,13 +14886,13 @@
       </c>
       <c r="AV120" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW120" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1"/>
@@ -15002,13 +15001,13 @@
       </c>
       <c r="AV121" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW121" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="25"/>
       <c r="C122" s="1"/>
@@ -15117,13 +15116,13 @@
       </c>
       <c r="AV122" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW122" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="25"/>
       <c r="C123" s="1"/>
@@ -15232,13 +15231,13 @@
       </c>
       <c r="AV123" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW123" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="25"/>
       <c r="C124" s="1"/>
@@ -15347,13 +15346,13 @@
       </c>
       <c r="AV124" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW124" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1"/>
@@ -15462,13 +15461,13 @@
       </c>
       <c r="AV125" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1"/>
@@ -15577,13 +15576,13 @@
       </c>
       <c r="AV126" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW126" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1"/>
@@ -15692,13 +15691,13 @@
       </c>
       <c r="AV127" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW127" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1"/>
@@ -15807,13 +15806,13 @@
       </c>
       <c r="AV128" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW128" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1"/>
@@ -15922,13 +15921,13 @@
       </c>
       <c r="AV129" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW129" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1"/>
@@ -16037,13 +16036,13 @@
       </c>
       <c r="AV130" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW130" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1"/>
@@ -16152,13 +16151,13 @@
       </c>
       <c r="AV131" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW131" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1"/>
@@ -16267,13 +16266,13 @@
       </c>
       <c r="AV132" s="4" t="str">
         <f t="shared" ref="AV132:AV195" si="39">IF(A132&lt;&gt;"",CONCATENATE(IF(AV131&lt;&gt;"",CONCATENATE(AV131,","),""),AT132),AV131)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW132" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1"/>
@@ -16382,13 +16381,13 @@
       </c>
       <c r="AV133" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW133" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1"/>
@@ -16497,13 +16496,13 @@
       </c>
       <c r="AV134" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW134" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1"/>
@@ -16612,13 +16611,13 @@
       </c>
       <c r="AV135" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW135" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1"/>
@@ -16727,13 +16726,13 @@
       </c>
       <c r="AV136" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW136" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1"/>
@@ -16842,13 +16841,13 @@
       </c>
       <c r="AV137" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW137" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1"/>
@@ -16957,13 +16956,13 @@
       </c>
       <c r="AV138" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW138" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="25"/>
       <c r="C139" s="1"/>
@@ -17072,13 +17071,13 @@
       </c>
       <c r="AV139" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW139" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="25"/>
       <c r="C140" s="1"/>
@@ -17187,13 +17186,13 @@
       </c>
       <c r="AV140" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW140" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="25"/>
       <c r="C141" s="1"/>
@@ -17302,13 +17301,13 @@
       </c>
       <c r="AV141" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW141" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="25"/>
       <c r="C142" s="1"/>
@@ -17417,13 +17416,13 @@
       </c>
       <c r="AV142" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW142" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="25"/>
       <c r="C143" s="1"/>
@@ -17532,13 +17531,13 @@
       </c>
       <c r="AV143" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW143" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="25"/>
       <c r="C144" s="1"/>
@@ -17647,13 +17646,13 @@
       </c>
       <c r="AV144" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW144" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="25"/>
       <c r="C145" s="1"/>
@@ -17762,13 +17761,13 @@
       </c>
       <c r="AV145" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW145" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="25"/>
       <c r="C146" s="1"/>
@@ -17877,13 +17876,13 @@
       </c>
       <c r="AV146" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW146" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="25"/>
       <c r="C147" s="1"/>
@@ -17992,13 +17991,13 @@
       </c>
       <c r="AV147" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW147" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="25"/>
       <c r="C148" s="1"/>
@@ -18107,13 +18106,13 @@
       </c>
       <c r="AV148" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW148" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="25"/>
       <c r="C149" s="1"/>
@@ -18222,13 +18221,13 @@
       </c>
       <c r="AV149" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW149" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="25"/>
       <c r="C150" s="1"/>
@@ -18337,13 +18336,13 @@
       </c>
       <c r="AV150" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW150" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="25"/>
       <c r="C151" s="1"/>
@@ -18452,13 +18451,13 @@
       </c>
       <c r="AV151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW151" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -18567,13 +18566,13 @@
       </c>
       <c r="AV152" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW152" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -18682,13 +18681,13 @@
       </c>
       <c r="AV153" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW153" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -18797,13 +18796,13 @@
       </c>
       <c r="AV154" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW154" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -18912,13 +18911,13 @@
       </c>
       <c r="AV155" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW155" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -19027,13 +19026,13 @@
       </c>
       <c r="AV156" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW156" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -19142,13 +19141,13 @@
       </c>
       <c r="AV157" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW157" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -19257,13 +19256,13 @@
       </c>
       <c r="AV158" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW158" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -19372,13 +19371,13 @@
       </c>
       <c r="AV159" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW159" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -19487,13 +19486,13 @@
       </c>
       <c r="AV160" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW160" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -19602,13 +19601,13 @@
       </c>
       <c r="AV161" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW161" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -19717,13 +19716,13 @@
       </c>
       <c r="AV162" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW162" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -19832,13 +19831,13 @@
       </c>
       <c r="AV163" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW163" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -19947,13 +19946,13 @@
       </c>
       <c r="AV164" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW164" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -20062,13 +20061,13 @@
       </c>
       <c r="AV165" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW165" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -20177,13 +20176,13 @@
       </c>
       <c r="AV166" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW166" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -20292,13 +20291,13 @@
       </c>
       <c r="AV167" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW167" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -20407,13 +20406,13 @@
       </c>
       <c r="AV168" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW168" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -20522,13 +20521,13 @@
       </c>
       <c r="AV169" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW169" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="25"/>
       <c r="C170" s="1"/>
@@ -20637,13 +20636,13 @@
       </c>
       <c r="AV170" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW170" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="25"/>
       <c r="C171" s="1"/>
@@ -20752,13 +20751,13 @@
       </c>
       <c r="AV171" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW171" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="25"/>
       <c r="C172" s="1"/>
@@ -20867,13 +20866,13 @@
       </c>
       <c r="AV172" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW172" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="25"/>
       <c r="C173" s="1"/>
@@ -20982,13 +20981,13 @@
       </c>
       <c r="AV173" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW173" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="25"/>
       <c r="C174" s="1"/>
@@ -21097,13 +21096,13 @@
       </c>
       <c r="AV174" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW174" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="25"/>
       <c r="C175" s="1"/>
@@ -21212,13 +21211,13 @@
       </c>
       <c r="AV175" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW175" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="25"/>
       <c r="C176" s="1"/>
@@ -21327,13 +21326,13 @@
       </c>
       <c r="AV176" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW176" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="25"/>
       <c r="C177" s="1"/>
@@ -21442,13 +21441,13 @@
       </c>
       <c r="AV177" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW177" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="25"/>
       <c r="C178" s="1"/>
@@ -21557,13 +21556,13 @@
       </c>
       <c r="AV178" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW178" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="25"/>
       <c r="C179" s="1"/>
@@ -21672,13 +21671,13 @@
       </c>
       <c r="AV179" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW179" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="25"/>
       <c r="C180" s="1"/>
@@ -21787,13 +21786,13 @@
       </c>
       <c r="AV180" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW180" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="25"/>
       <c r="C181" s="1"/>
@@ -21902,13 +21901,13 @@
       </c>
       <c r="AV181" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW181" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="25"/>
       <c r="C182" s="1"/>
@@ -22017,13 +22016,13 @@
       </c>
       <c r="AV182" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW182" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="25"/>
       <c r="C183" s="1"/>
@@ -22132,13 +22131,13 @@
       </c>
       <c r="AV183" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW183" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="25"/>
       <c r="C184" s="1"/>
@@ -22247,13 +22246,13 @@
       </c>
       <c r="AV184" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW184" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="25"/>
       <c r="C185" s="1"/>
@@ -22362,13 +22361,13 @@
       </c>
       <c r="AV185" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW185" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="25"/>
       <c r="C186" s="1"/>
@@ -22477,13 +22476,13 @@
       </c>
       <c r="AV186" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW186" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="25"/>
       <c r="C187" s="1"/>
@@ -22592,13 +22591,13 @@
       </c>
       <c r="AV187" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW187" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="25"/>
       <c r="C188" s="1"/>
@@ -22707,13 +22706,13 @@
       </c>
       <c r="AV188" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW188" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="25"/>
       <c r="C189" s="1"/>
@@ -22822,13 +22821,13 @@
       </c>
       <c r="AV189" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW189" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="25"/>
       <c r="C190" s="1"/>
@@ -22937,13 +22936,13 @@
       </c>
       <c r="AV190" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW190" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="25"/>
       <c r="C191" s="1"/>
@@ -23052,13 +23051,13 @@
       </c>
       <c r="AV191" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW191" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="25"/>
       <c r="C192" s="1"/>
@@ -23167,13 +23166,13 @@
       </c>
       <c r="AV192" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW192" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="25"/>
       <c r="C193" s="1"/>
@@ -23282,13 +23281,13 @@
       </c>
       <c r="AV193" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW193" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="25"/>
       <c r="C194" s="1"/>
@@ -23397,13 +23396,13 @@
       </c>
       <c r="AV194" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW194" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="25"/>
       <c r="C195" s="1"/>
@@ -23512,13 +23511,13 @@
       </c>
       <c r="AV195" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW195" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="25"/>
       <c r="C196" s="1"/>
@@ -23627,13 +23626,13 @@
       </c>
       <c r="AV196" s="4" t="str">
         <f t="shared" ref="AV196:AV202" si="52">IF(A196&lt;&gt;"",CONCATENATE(IF(AV195&lt;&gt;"",CONCATENATE(AV195,","),""),AT196),AV195)</f>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW196" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="25"/>
       <c r="C197" s="1"/>
@@ -23742,13 +23741,13 @@
       </c>
       <c r="AV197" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW197" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="25"/>
       <c r="C198" s="1"/>
@@ -23857,13 +23856,13 @@
       </c>
       <c r="AV198" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW198" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="25"/>
       <c r="C199" s="1"/>
@@ -23972,13 +23971,13 @@
       </c>
       <c r="AV199" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW199" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="25"/>
       <c r="C200" s="1"/>
@@ -24087,13 +24086,13 @@
       </c>
       <c r="AV200" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW200" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="25"/>
       <c r="C201" s="1"/>
@@ -24202,13 +24201,13 @@
       </c>
       <c r="AV201" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW201" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="25"/>
       <c r="C202" s="1"/>
@@ -24313,7 +24312,7 @@
       </c>
       <c r="AV202" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>{"id": "building", "descr": "Building", "type": "http://ifcowl.openbimstandards.org/IFC4_ADD1#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
+        <v>{"id": "building", "descr": "Building", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0]},{"id": "Pallet", "descr": "Pallet for the main hinge assembly", "type": "http://www.ontoeng.com/factory#Pallet", "representations": [{"file": "Pallet.glb", "unit": 1}], "position": [50,0,300], "placementRelTo": "building"},{"id": "M1", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,400], "placementRelTo": "building"},{"id": "M2", "descr": "Pin Insertion Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Pin_Insertion_Station.glb", "unit": 1}], "position": [20,0,300], "placementRelTo": "building"},{"id": "M3", "descr": "Riveting Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Riveting_Station.glb", "unit": 1}], "position": [20,0,200], "placementRelTo": "building"},{"id": "M4", "descr": "Inspection Camera Station", "type": "http://www.ontoeng.com/factory#MachineTool", "representations": [{"file": "Inspection_Camera_Station.glb", "unit": 1}], "position": [20,0,100], "placementRelTo": "building"}</v>
       </c>
       <c r="AW202" s="5" t="s">
         <v>1</v>
